--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -49,6 +49,9 @@
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -58,13 +61,13 @@
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
@@ -73,114 +76,111 @@
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>di</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>price</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -190,12 +190,15 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -214,39 +217,39 @@
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
@@ -260,9 +263,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -692,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>57</v>
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K4">
-        <v>0.8494623655913979</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7096774193548387</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.703125</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -910,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -942,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6351351351351351</v>
+        <v>0.65625</v>
       </c>
       <c r="C8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -960,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K8">
-        <v>0.5797101449275363</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6181818181818182</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>63</v>
       </c>
       <c r="K9">
-        <v>0.5667144906743186</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L9">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>302</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.616504854368932</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K10">
-        <v>0.533195020746888</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L10">
-        <v>257</v>
+        <v>397</v>
       </c>
       <c r="M10">
-        <v>257</v>
+        <v>397</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>225</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6052631578947368</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K11">
-        <v>0.4745901639344262</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="M11">
-        <v>579</v>
+        <v>241</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>641</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6041666666666666</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K12">
-        <v>0.3544973544973545</v>
+        <v>0.4688524590163934</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>572</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>572</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>122</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K13">
-        <v>0.35</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>78</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K14">
-        <v>0.3493975903614458</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5185185185185185</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K15">
-        <v>0.3486238532110092</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5159420289855072</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C16">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K16">
-        <v>0.265625</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4457831325301205</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.28125</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4453125</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K18">
-        <v>0.2473118279569892</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4210526315789473</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K19">
-        <v>0.208</v>
+        <v>0.224</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4028436018957346</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K20">
-        <v>0.1967871485943775</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1592,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4015748031496063</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K21">
-        <v>0.1825396825396825</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>103</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3666666666666666</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,31 +1660,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K22">
-        <v>0.1649122807017544</v>
+        <v>0.1831726555652936</v>
       </c>
       <c r="L22">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1692,13 +1692,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3650793650793651</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1710,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K23">
-        <v>0.1096256684491979</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L23">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>333</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3432835820895522</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1760,31 +1760,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K24">
-        <v>0.1064935064935065</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="L24">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="N24">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1376</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3146067415730337</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1810,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K25">
-        <v>0.1002785515320334</v>
+        <v>0.09635416666666667</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>323</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3069306930693069</v>
+        <v>0.34375</v>
       </c>
       <c r="C26">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1860,31 +1860,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K26">
-        <v>0.06559571619812583</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N26">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>698</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2628865979381443</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1910,31 +1910,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K27">
-        <v>0.0465587044534413</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="N27">
-        <v>0.79</v>
+        <v>0.91</v>
       </c>
       <c r="O27">
-        <v>0.21</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>471</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1942,13 +1942,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2448979591836735</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1960,31 +1960,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K28">
-        <v>0.03125</v>
+        <v>0.0523138832997988</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>682</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1992,13 +1992,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2307692307692308</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2018,13 +2018,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2246835443037975</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C30">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>245</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2044,13 +2044,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.21</v>
+        <v>0.225</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2070,13 +2070,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1974522292993631</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>126</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2096,25 +2096,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1959654178674352</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C33">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2122,13 +2122,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1920289855072464</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C34">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="D34">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>223</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2148,25 +2148,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1887072808320951</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C35">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>546</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2174,25 +2174,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1708860759493671</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2200,25 +2200,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1655629139072848</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>378</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2226,13 +2226,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1542056074766355</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2252,13 +2252,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1371428571428571</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>151</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2278,13 +2278,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1256830601092896</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>160</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2304,25 +2304,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1203007518796992</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>234</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2330,25 +2330,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1052631578947368</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2356,25 +2356,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.09641255605381166</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E43">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>403</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2382,25 +2382,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09065934065934066</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>331</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2408,13 +2408,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.08745874587458746</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
         <v>53</v>
-      </c>
-      <c r="D45">
-        <v>55</v>
       </c>
       <c r="E45">
         <v>0.04</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2434,25 +2434,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07344632768361582</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F46">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2460,25 +2460,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06338028169014084</v>
+        <v>0.07417582417582418</v>
       </c>
       <c r="C47">
         <v>27</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E47">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="F47">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>399</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2486,25 +2486,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0586734693877551</v>
+        <v>0.06138107416879796</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D48">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E48">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="F48">
-        <v>0.8200000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2512,25 +2512,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.05620608899297424</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F49">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2538,25 +2538,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04006163328197226</v>
+        <v>0.06</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E50">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
